--- a/dtpu_configurations/only_integer8/mxu_12x12_30mhz/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/mxu_12x12_30mhz/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>18.007518768310547</v>
+        <v>19.375940322875977</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>6.086206912994385</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>13.364662170410156</v>
+        <v>13.842105865478516</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>34.28571701049805</v>
+        <v>35.0</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>60.000003814697266</v>
